--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_20-53.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_20-53.xlsx
@@ -170,6 +170,9 @@
     <t>12:0</t>
   </si>
   <si>
+    <t>CORDO PLUS SPRAY 60 ML</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
@@ -260,6 +263,12 @@
     <t>FINCH BABY CREAM</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>FLEXILAX 30 F.C.TAB</t>
   </si>
   <si>
@@ -479,6 +488,9 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -516,9 +528,6 @@
   </si>
   <si>
     <t>الويز كبير بالاجنحه</t>
-  </si>
-  <si>
-    <t>7:0</t>
   </si>
   <si>
     <t>املاح افونا</t>
@@ -2007,17 +2016,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -2025,7 +2034,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2033,17 +2042,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -2059,17 +2068,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>47.5</v>
+        <v>98</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -2085,17 +2094,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>60</v>
+        <v>47.5</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -2111,17 +2120,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2137,13 +2146,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -2155,7 +2164,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2163,17 +2172,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2181,7 +2190,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2189,17 +2198,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2215,17 +2224,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2233,7 +2242,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2241,17 +2250,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2267,17 +2276,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2293,17 +2302,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2319,13 +2328,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2351,7 +2360,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2371,17 +2380,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2403,11 +2412,11 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2423,17 +2432,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2441,7 +2450,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2449,17 +2458,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2467,7 +2476,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2475,13 +2484,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2493,7 +2502,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2501,17 +2510,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2527,13 +2536,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2553,13 +2562,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2579,17 +2588,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2605,17 +2614,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>55.670000000000002</v>
+        <v>26</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2623,7 +2632,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2631,17 +2640,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2649,7 +2658,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2657,17 +2666,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>44</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2675,7 +2684,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2683,13 +2692,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2709,13 +2718,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2735,17 +2744,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2753,7 +2762,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2767,7 +2776,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>15.300000000000001</v>
+        <v>190</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2779,7 +2788,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2787,17 +2796,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2805,7 +2814,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2813,13 +2822,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>85.560000000000002</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2831,7 +2840,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2839,13 +2848,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2857,7 +2866,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2871,7 +2880,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>50.960000000000001</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2883,7 +2892,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2897,7 +2906,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2909,7 +2918,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2917,17 +2926,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>24</v>
+        <v>50.960000000000001</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2943,13 +2952,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2969,17 +2978,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2987,7 +2996,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -3001,7 +3010,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>69.900000000000006</v>
+        <v>70</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -3013,7 +3022,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -3021,17 +3030,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3047,17 +3056,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>75</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -3073,17 +3082,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>27.329999999999998</v>
+        <v>32</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -3091,7 +3100,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -3099,17 +3108,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>218.69999999999999</v>
+        <v>75</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -3117,7 +3126,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -3125,13 +3134,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>0</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -3143,7 +3152,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -3151,13 +3160,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>277.5</v>
+        <v>218.69999999999999</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -3169,7 +3178,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3177,17 +3186,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3195,7 +3204,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3203,13 +3212,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>247</v>
+        <v>277.5</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -3221,7 +3230,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3229,7 +3238,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
@@ -3247,7 +3256,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3255,13 +3264,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3273,7 +3282,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3287,7 +3296,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3299,7 +3308,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3307,17 +3316,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3333,17 +3342,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3359,17 +3368,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3377,7 +3386,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3385,17 +3394,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>62.549999999999997</v>
+        <v>32</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3403,7 +3412,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3411,13 +3420,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3429,7 +3438,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3443,7 +3452,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>85</v>
+        <v>62.549999999999997</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3455,7 +3464,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3463,17 +3472,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3489,13 +3498,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3515,17 +3524,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3533,7 +3542,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3541,13 +3550,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3559,7 +3568,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3567,17 +3576,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3585,7 +3594,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3593,17 +3602,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3619,17 +3628,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3645,17 +3654,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3663,7 +3672,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3671,17 +3680,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3689,7 +3698,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3697,17 +3706,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3715,7 +3724,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3723,17 +3732,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3741,7 +3750,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3749,17 +3758,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>56.399999999999999</v>
+        <v>75</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3775,17 +3784,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3801,17 +3810,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>30</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3819,7 +3828,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3827,17 +3836,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3845,7 +3854,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3853,13 +3862,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3871,7 +3880,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3879,13 +3888,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>65.75</v>
+        <v>85</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3897,7 +3906,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3905,17 +3914,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3923,7 +3932,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3937,7 +3946,7 @@
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>140</v>
+        <v>65.75</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3949,7 +3958,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3957,17 +3966,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3975,7 +3984,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3983,17 +3992,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -4001,7 +4010,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -4015,7 +4024,7 @@
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>249.47999999999999</v>
+        <v>90</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -4027,7 +4036,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -4035,17 +4044,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -4053,7 +4062,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -4061,17 +4070,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>140</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4093,7 +4102,7 @@
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -4113,17 +4122,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4131,7 +4140,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -4139,17 +4148,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4157,7 +4166,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4165,17 +4174,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4183,7 +4192,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4191,17 +4200,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4209,7 +4218,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4217,17 +4226,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4235,7 +4244,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4243,17 +4252,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4261,7 +4270,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4269,17 +4278,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4287,7 +4296,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4295,17 +4304,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4313,7 +4322,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4321,17 +4330,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4339,7 +4348,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4347,17 +4356,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4365,7 +4374,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4373,13 +4382,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
@@ -4391,7 +4400,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4399,17 +4408,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4417,7 +4426,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4425,17 +4434,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>9.9499999999999993</v>
+        <v>52</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4451,13 +4460,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
@@ -4477,17 +4486,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4503,17 +4512,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>31</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4521,7 +4530,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4529,13 +4538,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4547,7 +4556,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4555,17 +4564,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>58.200000000000003</v>
+        <v>224</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4581,17 +4590,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4607,13 +4616,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
@@ -4633,13 +4642,13 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>140</v>
+        <v>58.200000000000003</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
@@ -4659,13 +4668,13 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
@@ -4685,13 +4694,13 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
@@ -4717,7 +4726,7 @@
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="M136" s="9"/>
       <c t="s" r="N136" s="7">
@@ -4737,13 +4746,13 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="M137" s="9"/>
       <c t="s" r="N137" s="7">
@@ -4763,13 +4772,13 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="M138" s="9"/>
       <c t="s" r="N138" s="7">
@@ -4789,17 +4798,17 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M139" s="9"/>
       <c t="s" r="N139" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
@@ -4807,7 +4816,7 @@
         <v>137</v>
       </c>
       <c t="s" r="B140" s="7">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4815,17 +4824,17 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M140" s="9"/>
       <c t="s" r="N140" s="7">
-        <v>182</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" ht="24.75" customHeight="1">
@@ -4833,7 +4842,7 @@
         <v>138</v>
       </c>
       <c t="s" r="B141" s="7">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4841,17 +4850,17 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M141" s="9"/>
       <c t="s" r="N141" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -4859,7 +4868,7 @@
         <v>139</v>
       </c>
       <c t="s" r="B142" s="7">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4867,17 +4876,17 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M142" s="9"/>
       <c t="s" r="N142" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" ht="25.5" customHeight="1">
@@ -4885,7 +4894,7 @@
         <v>140</v>
       </c>
       <c t="s" r="B143" s="7">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -4893,17 +4902,17 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M143" s="9"/>
       <c t="s" r="N143" s="7">
-        <v>22</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" ht="24.75" customHeight="1">
@@ -4911,7 +4920,7 @@
         <v>141</v>
       </c>
       <c t="s" r="B144" s="7">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -4919,17 +4928,17 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M144" s="9"/>
       <c t="s" r="N144" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" ht="25.5" customHeight="1">
@@ -4937,7 +4946,7 @@
         <v>142</v>
       </c>
       <c t="s" r="B145" s="7">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -4945,13 +4954,13 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c t="s" r="H145" s="8">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="9">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="M145" s="9"/>
       <c t="s" r="N145" s="7">
@@ -4971,13 +4980,13 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c t="s" r="H146" s="8">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M146" s="9"/>
       <c t="s" r="N146" s="7">
@@ -4997,13 +5006,13 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c t="s" r="H147" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="9">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M147" s="9"/>
       <c t="s" r="N147" s="7">
@@ -5023,13 +5032,13 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c t="s" r="H148" s="8">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="M148" s="9"/>
       <c t="s" r="N148" s="7">
@@ -5041,7 +5050,7 @@
         <v>146</v>
       </c>
       <c t="s" r="B149" s="7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -5049,13 +5058,13 @@
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c t="s" r="H149" s="8">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
       <c r="L149" s="9">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M149" s="9"/>
       <c t="s" r="N149" s="7">
@@ -5067,7 +5076,7 @@
         <v>147</v>
       </c>
       <c t="s" r="B150" s="7">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -5075,13 +5084,13 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c t="s" r="H150" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M150" s="9"/>
       <c t="s" r="N150" s="7">
@@ -5093,7 +5102,7 @@
         <v>148</v>
       </c>
       <c t="s" r="B151" s="7">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -5101,13 +5110,13 @@
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c t="s" r="H151" s="8">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M151" s="9"/>
       <c t="s" r="N151" s="7">
@@ -5119,7 +5128,7 @@
         <v>149</v>
       </c>
       <c t="s" r="B152" s="7">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -5127,13 +5136,13 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c t="s" r="H152" s="8">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
       <c r="L152" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M152" s="9"/>
       <c t="s" r="N152" s="7">
@@ -5153,13 +5162,13 @@
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c t="s" r="H153" s="8">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
       <c r="L153" s="9">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M153" s="9"/>
       <c t="s" r="N153" s="7">
@@ -5179,13 +5188,13 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c t="s" r="H154" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
       <c r="L154" s="9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M154" s="9"/>
       <c t="s" r="N154" s="7">
@@ -5205,13 +5214,13 @@
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c t="s" r="H155" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
       <c r="L155" s="9">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M155" s="9"/>
       <c t="s" r="N155" s="7">
@@ -5231,13 +5240,13 @@
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c t="s" r="H156" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
       <c r="L156" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M156" s="9"/>
       <c t="s" r="N156" s="7">
@@ -5257,17 +5266,17 @@
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c t="s" r="H157" s="8">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
       <c r="L157" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M157" s="9"/>
       <c t="s" r="N157" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" ht="25.5" customHeight="1">
@@ -5283,13 +5292,13 @@
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c t="s" r="H158" s="8">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M158" s="9"/>
       <c t="s" r="N158" s="7">
@@ -5301,7 +5310,7 @@
         <v>156</v>
       </c>
       <c t="s" r="B159" s="7">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -5309,13 +5318,13 @@
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c t="s" r="H159" s="8">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="9">
-        <v>9.5</v>
+        <v>40</v>
       </c>
       <c r="M159" s="9"/>
       <c t="s" r="N159" s="7">
@@ -5327,7 +5336,7 @@
         <v>157</v>
       </c>
       <c t="s" r="B160" s="7">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -5335,17 +5344,17 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c t="s" r="H160" s="8">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M160" s="9"/>
       <c t="s" r="N160" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" ht="24.75" customHeight="1">
@@ -5353,7 +5362,7 @@
         <v>158</v>
       </c>
       <c t="s" r="B161" s="7">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -5361,13 +5370,13 @@
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c t="s" r="H161" s="8">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="9">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="M161" s="9"/>
       <c t="s" r="N161" s="7">
@@ -5379,7 +5388,7 @@
         <v>159</v>
       </c>
       <c t="s" r="B162" s="7">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -5387,13 +5396,13 @@
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c t="s" r="H162" s="8">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="9">
-        <v>35</v>
+        <v>9.5</v>
       </c>
       <c r="M162" s="9"/>
       <c t="s" r="N162" s="7">
@@ -5413,13 +5422,13 @@
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c t="s" r="H163" s="8">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="9">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="M163" s="9"/>
       <c t="s" r="N163" s="7">
@@ -5439,13 +5448,13 @@
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c t="s" r="H164" s="8">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="9">
-        <v>19.199999999999999</v>
+        <v>170</v>
       </c>
       <c r="M164" s="9"/>
       <c t="s" r="N164" s="7">
@@ -5471,7 +5480,7 @@
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M165" s="9"/>
       <c t="s" r="N165" s="7">
@@ -5491,13 +5500,13 @@
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c t="s" r="H166" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M166" s="9"/>
       <c t="s" r="N166" s="7">
@@ -5517,13 +5526,13 @@
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c t="s" r="H167" s="8">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="9">
-        <v>20</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M167" s="9"/>
       <c t="s" r="N167" s="7">
@@ -5543,13 +5552,13 @@
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c t="s" r="H168" s="8">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="9">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="M168" s="9"/>
       <c t="s" r="N168" s="7">
@@ -5569,13 +5578,13 @@
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c t="s" r="H169" s="8">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="9">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="M169" s="9"/>
       <c t="s" r="N169" s="7">
@@ -5595,13 +5604,13 @@
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c t="s" r="H170" s="8">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M170" s="9"/>
       <c t="s" r="N170" s="7">
@@ -5613,7 +5622,7 @@
         <v>168</v>
       </c>
       <c t="s" r="B171" s="7">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
@@ -5621,13 +5630,13 @@
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c t="s" r="H171" s="8">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
       <c r="L171" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M171" s="9"/>
       <c t="s" r="N171" s="7">
@@ -5639,7 +5648,7 @@
         <v>169</v>
       </c>
       <c t="s" r="B172" s="7">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
@@ -5647,13 +5656,13 @@
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c t="s" r="H172" s="8">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
       <c r="L172" s="9">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="M172" s="9"/>
       <c t="s" r="N172" s="7">
@@ -5665,7 +5674,7 @@
         <v>170</v>
       </c>
       <c t="s" r="B173" s="7">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -5673,13 +5682,13 @@
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c t="s" r="H173" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
       <c r="K173" s="8"/>
       <c r="L173" s="9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M173" s="9"/>
       <c t="s" r="N173" s="7">
@@ -5699,13 +5708,13 @@
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c t="s" r="H174" s="8">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
       <c r="L174" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M174" s="9"/>
       <c t="s" r="N174" s="7">
@@ -5725,13 +5734,13 @@
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c t="s" r="H175" s="8">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
       <c r="L175" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M175" s="9"/>
       <c t="s" r="N175" s="7">
@@ -5751,7 +5760,7 @@
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c t="s" r="H176" s="8">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
@@ -5777,13 +5786,13 @@
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c t="s" r="H177" s="8">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
       <c r="K177" s="8"/>
       <c r="L177" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M177" s="9"/>
       <c t="s" r="N177" s="7">
@@ -5791,37 +5800,115 @@
       </c>
     </row>
     <row r="178" ht="25.5" customHeight="1">
-      <c r="K178" s="10">
-        <v>10999.31</v>
-      </c>
-      <c r="L178" s="10"/>
-      <c r="M178" s="10"/>
-      <c r="N178" s="10"/>
-    </row>
-    <row r="179" ht="17.25" customHeight="1">
-      <c t="s" r="A179" s="11">
+      <c r="A178" s="6">
+        <v>175</v>
+      </c>
+      <c t="s" r="B178" s="7">
         <v>226</v>
       </c>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c t="s" r="F179" s="12">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c t="s" r="H178" s="8">
+        <v>8</v>
+      </c>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
+      <c r="K178" s="8"/>
+      <c r="L178" s="9">
+        <v>20</v>
+      </c>
+      <c r="M178" s="9"/>
+      <c t="s" r="N178" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" ht="24.75" customHeight="1">
+      <c r="A179" s="6">
+        <v>176</v>
+      </c>
+      <c t="s" r="B179" s="7">
         <v>227</v>
       </c>
-      <c r="G179" s="12"/>
-      <c r="H179" s="13"/>
-      <c t="s" r="I179" s="14">
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c t="s" r="H179" s="8">
+        <v>11</v>
+      </c>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="9">
+        <v>40</v>
+      </c>
+      <c r="M179" s="9"/>
+      <c t="s" r="N179" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" ht="25.5" customHeight="1">
+      <c r="A180" s="6">
+        <v>177</v>
+      </c>
+      <c t="s" r="B180" s="7">
         <v>228</v>
       </c>
-      <c r="J179" s="14"/>
-      <c r="K179" s="14"/>
-      <c r="L179" s="14"/>
-      <c r="M179" s="14"/>
-      <c r="N179" s="14"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c t="s" r="H180" s="8">
+        <v>76</v>
+      </c>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
+      <c r="L180" s="9">
+        <v>30</v>
+      </c>
+      <c r="M180" s="9"/>
+      <c t="s" r="N180" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" ht="25.5" customHeight="1">
+      <c r="K181" s="10">
+        <v>11118.31</v>
+      </c>
+      <c r="L181" s="10"/>
+      <c r="M181" s="10"/>
+      <c r="N181" s="10"/>
+    </row>
+    <row r="182" ht="16.5" customHeight="1">
+      <c t="s" r="A182" s="11">
+        <v>229</v>
+      </c>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c t="s" r="F182" s="12">
+        <v>230</v>
+      </c>
+      <c r="G182" s="12"/>
+      <c r="H182" s="13"/>
+      <c t="s" r="I182" s="14">
+        <v>231</v>
+      </c>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="533">
+  <mergeCells count="542">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -6351,10 +6438,19 @@
     <mergeCell ref="B177:G177"/>
     <mergeCell ref="H177:K177"/>
     <mergeCell ref="L177:M177"/>
-    <mergeCell ref="K178:N178"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="I179:N179"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="H178:K178"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="B179:G179"/>
+    <mergeCell ref="H179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="B180:G180"/>
+    <mergeCell ref="H180:K180"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="K181:N181"/>
+    <mergeCell ref="A182:E182"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="I182:N182"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
